--- a/Project Management/Analisi Dati.xlsx
+++ b/Project Management/Analisi Dati.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Internal Logical Files" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>Attributes</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Map Retrivial</t>
   </si>
   <si>
-    <t>Coordinates Retrivial</t>
-  </si>
-  <si>
     <t>Distance Retrivial</t>
   </si>
   <si>
@@ -140,15 +137,9 @@
     <t>Ride Start Data Retrivial</t>
   </si>
   <si>
-    <t>2x3</t>
-  </si>
-  <si>
     <t>Grant/Revoke App Privileges</t>
   </si>
   <si>
-    <t>2x4</t>
-  </si>
-  <si>
     <t>Fee Notification</t>
   </si>
   <si>
@@ -210,6 +201,12 @@
   </si>
   <si>
     <t>Money Saving Mode Data</t>
+  </si>
+  <si>
+    <t>Address-Position Conversion</t>
+  </si>
+  <si>
+    <t>10000/year</t>
   </si>
 </sst>
 </file>
@@ -689,7 +686,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -726,17 +723,17 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>10000</v>
+      <c r="B2" t="s">
+        <v>60</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
@@ -782,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
@@ -805,13 +802,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -828,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
@@ -851,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>21</v>
@@ -874,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>21</v>
@@ -943,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>19</v>
@@ -955,7 +952,7 @@
     <row r="12" spans="1:7">
       <c r="G12">
         <f>SUM(G2:G11)</f>
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -973,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1013,7 +1010,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -1021,7 +1018,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -1033,12 +1030,12 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -1046,7 +1043,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
@@ -1059,10 +1056,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
@@ -1116,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1142,29 +1139,32 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -1189,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
@@ -1230,32 +1230,38 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
@@ -1263,7 +1269,8 @@
     </row>
     <row r="13" spans="1:5">
       <c r="C13" s="1">
-        <v>53</v>
+        <f>SUM(C2,C3,D3,C4,C5,C6,C7,C8,C9,C10,D10,D11,C11,C12)</f>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1309,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -1313,7 +1320,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -1324,7 +1331,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -1335,7 +1342,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1346,10 +1353,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1415,7 +1422,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -1426,7 +1433,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -1437,7 +1444,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -1448,7 +1455,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1487,7 +1494,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1">
         <v>32</v>
@@ -1495,7 +1502,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>53</v>
@@ -1503,7 +1510,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -1511,7 +1518,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -1519,7 +1526,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>76</v>
@@ -1527,7 +1534,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <f>SUM(B1:B5)</f>
@@ -1536,7 +1543,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>46</v>
@@ -1544,7 +1551,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>67</v>
@@ -1552,7 +1559,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <f>PRODUCT(B7:B8)</f>
@@ -1561,7 +1568,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <f>PRODUCT(B9,B7)</f>
